--- a/data/HR1/A_KPC_35_1/A_KPC_35_1_2035.xlsx
+++ b/data/HR1/A_KPC_35_1/A_KPC_35_1_2035.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_KPC_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8E7E41-77C8-413F-AC32-C6BE3606F733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DE174B-99CF-436E-8085-6B42609E8469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38595" yWindow="-9450" windowWidth="23250" windowHeight="12570" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" tabRatio="722" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>numScenarios</t>
   </si>
@@ -13646,7 +13646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -13715,7 +13715,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM('RES installed'!$C$2:$C$7)</f>
-        <v>0.55000000000000004</v>
+        <v>6.7799999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -13724,7 +13724,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM('ES installed'!$C$2:$C$7)</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -21010,7 +21010,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21414,7 +21414,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>1.960089604096187E-6</v>
+        <v>7.9814848678796732E-5</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21434,55 +21434,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>1.1918944866051017E-3</v>
+        <v>4.8533943494559736E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>2.3612799442260215E-2</v>
+        <v>0.96151319328883589</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>6.1612616576757789E-2</v>
+        <v>2.5088657470055771</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>7.6889514949254806E-2</v>
+        <v>3.1309410487336558</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>8.5401424065100096E-2</v>
+        <v>3.4775459879308759</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>8.698517646520984E-2</v>
+        <v>3.5420363856633448</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>8.5387903447014704E-2</v>
+        <v>3.4769954283624385</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>7.2909172990765284E-2</v>
+        <v>2.9688615241839624</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>4.8180402532687204E-2</v>
+        <v>1.9619059911310228</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>1.1771038104599067E-2</v>
+        <v>0.47931667161927399</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>9.2004205906555731E-5</v>
+        <v>3.7464112645149493E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>7.9203620736947978E-6</v>
+        <v>3.2251714364085217E-4</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>6.0602770412361709E-6</v>
+        <v>2.4677448111913689E-4</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -21515,7 +21515,7 @@
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
-        <v>6.6643046539270358E-6</v>
+        <v>2.6500411447380449E-5</v>
       </c>
       <c r="E7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
@@ -21535,55 +21535,55 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
-        <v>4.0524412544573453E-3</v>
+        <v>1.6114413458900974E-2</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
-        <v>8.0283518103684726E-2</v>
+        <v>0.31924504845935808</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
-        <v>0.20948289636097647</v>
+        <v>0.83300257611776529</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
-        <v>0.26142435082746635</v>
+        <v>1.039546242113925</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
-        <v>0.29036484182134031</v>
+        <v>1.1546272533601531</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
-        <v>0.29574959998171346</v>
+        <v>1.1760395858096371</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
-        <v>0.29031887171984999</v>
+        <v>1.1544444546036388</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
-        <v>0.24789118816860195</v>
+        <v>0.98573201883514661</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
-        <v>0.16381336861113649</v>
+        <v>0.65139904224193101</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
-        <v>4.0021529555636828E-2</v>
+        <v>0.15914443517417937</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
-        <v>3.1281430008228949E-4</v>
+        <v>1.2438968638566333E-3</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
-        <v>2.6929231050562312E-5</v>
+        <v>1.0708329523635367E-4</v>
       </c>
       <c r="U7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
-        <v>2.0604941940202979E-5</v>
+        <v>8.193494559751303E-5</v>
       </c>
       <c r="V7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
@@ -22720,7 +22720,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>3.4067622950819668E-6</v>
+        <v>1.3872336065573769E-4</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22744,51 +22744,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>9.5500512295081954E-4</v>
+        <v>3.888780860655737E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>1.8796721311475407E-2</v>
+        <v>0.76540249180327857</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>4.4714651639344266E-2</v>
+        <v>1.8207806147540984</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>6.0172602459016393E-2</v>
+        <v>2.4502283721311473</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>7.3799508196721306E-2</v>
+        <v>3.0051159737704913</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>8.7642725409836059E-2</v>
+        <v>3.5688117786885241</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>7.313977971311475E-2</v>
+        <v>2.9782518299180327</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>5.3743109631147541E-2</v>
+        <v>2.1884194241803279</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>2.578122950819672E-2</v>
+        <v>1.0498116655737704</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>5.3860911885245891E-3</v>
+        <v>0.21932163319672127</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>3.4426229508196714E-5</v>
+        <v>1.4018360655737702E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>1.5061475409836064E-5</v>
+        <v>6.1330327868852456E-4</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -22821,7 +22821,7 @@
       </c>
       <c r="C7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
-        <v>1.1582991803278687E-5</v>
+        <v>4.6059426229508191E-5</v>
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
@@ -22845,51 +22845,51 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
-        <v>3.2470174180327864E-3</v>
+        <v>1.291166926229508E-2</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
-        <v>6.3908852459016383E-2</v>
+        <v>0.25413167213114751</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
-        <v>0.15202981557377049</v>
+        <v>0.60454209016393445</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
-        <v>0.20458684836065574</v>
+        <v>0.81353358524590158</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
-        <v>0.25091832786885243</v>
+        <v>0.997769350819672</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
-        <v>0.29798526639344258</v>
+        <v>1.1849296475409834</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
-        <v>0.24867525102459015</v>
+        <v>0.98884982172131142</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
-        <v>0.18272657274590162</v>
+        <v>0.72660684221311478</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
-        <v>8.7656180327868843E-2</v>
+        <v>0.34856222295081962</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
-        <v>1.8312710040983601E-2</v>
+        <v>7.2819952868852442E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
-        <v>1.1704918032786882E-4</v>
+        <v>4.6544262295081956E-4</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
-        <v>5.1209016393442617E-5</v>
+        <v>2.036311475409836E-4</v>
       </c>
       <c r="U7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
@@ -24054,47 +24054,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>1.0325708681346493E-3</v>
+        <v>4.2046285750442919E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>2.2547278378891419E-2</v>
+        <v>0.91812517558845852</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>5.2494325012655017E-2</v>
+        <v>2.1375689145153123</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>7.5702116552771453E-2</v>
+        <v>3.0825901860288534</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>7.7931002436092106E-2</v>
+        <v>3.1733504191976705</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>7.3996713648443416E-2</v>
+        <v>3.013146179764616</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>5.7934423247279161E-2</v>
+        <v>2.3590897146292074</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>4.4627657555049348E-2</v>
+        <v>1.8172382156416094</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>1.8936187041255378E-2</v>
+        <v>0.77108153631991894</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>3.3431212034927861E-3</v>
+        <v>0.13613189540622625</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>5.4258415590989625E-6</v>
+        <v>2.2094026828650974E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -24155,47 +24155,47 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
-        <v>3.5107409516578073E-3</v>
+        <v>1.3960358137180457E-2</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
-        <v>7.6660746488230819E-2</v>
+        <v>0.30483920368261197</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
-        <v>0.17848070504302704</v>
+        <v>0.70972327417109582</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
-        <v>0.25738719627942291</v>
+        <v>1.0234926157934701</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
-        <v>0.26496540828271314</v>
+        <v>1.0536271529359653</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
-        <v>0.25158882640470759</v>
+        <v>1.000435568526955</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
-        <v>0.19697703904074915</v>
+        <v>0.78327340230321418</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
-        <v>0.15173403568716778</v>
+        <v>0.6033659301442672</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
-        <v>6.4383035940268285E-2</v>
+        <v>0.25601724879777271</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
-        <v>1.1366612091875472E-2</v>
+        <v>4.5198998671222464E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
-        <v>1.8447861300936471E-5</v>
+        <v>7.3357377879017976E-5</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
@@ -28222,7 +28222,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28249,7 +28249,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="8">
-        <v>0.125</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -28260,7 +28260,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="8">
-        <v>0.42499999999999999</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -45015,7 +45015,7 @@
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>2.4697129011611958E-6</v>
+        <v>1.005667093352839E-4</v>
       </c>
       <c r="E6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -45035,55 +45035,55 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>1.4421923287921731E-3</v>
+        <v>5.8726071628417288E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>2.9988255291670471E-2</v>
+        <v>1.2211217554768214</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>7.9480275384017543E-2</v>
+        <v>3.2364368136371944</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>9.9956369434031259E-2</v>
+        <v>4.0702233633537528</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.10333572311877111</v>
+        <v>4.207830645396359</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.11308072940477279</v>
+        <v>4.6046473013623475</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.11015039544664897</v>
+        <v>4.4853241025875459</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>9.25946496982719E-2</v>
+        <v>3.7704541357136319</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>5.9261895115205264E-2</v>
+        <v>2.4131443690911585</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>1.4831508011794822E-2</v>
+        <v>0.60393900624028518</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>1.1592529944226023E-4</v>
+        <v>4.7204781932888365E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>9.8212489713815493E-6</v>
+        <v>3.9992125811465668E-4</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>7.3329352198957667E-6</v>
+        <v>2.9859712215415561E-4</v>
       </c>
       <c r="V6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -45116,7 +45116,7 @@
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
-        <v>8.3970238639480654E-6</v>
+        <v>3.3390518423699366E-5</v>
       </c>
       <c r="E7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
@@ -45136,55 +45136,55 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
-        <v>4.9034539178933884E-3</v>
+        <v>1.9498440285270178E-2</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
-        <v>0.1019600679916796</v>
+        <v>0.40544121154338475</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
-        <v>0.27023293630565964</v>
+        <v>1.0745733231919172</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
-        <v>0.33985165607570628</v>
+        <v>1.3514101147481026</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
-        <v>0.35134145860382177</v>
+        <v>1.3970989765657853</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
-        <v>0.38447447997622747</v>
+        <v>1.5288514615525282</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
-        <v>0.37451134451860646</v>
+        <v>1.489233346438694</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
-        <v>0.31482180897412443</v>
+        <v>1.251879663920636</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
-        <v>0.20149044339169789</v>
+        <v>0.80122082195757516</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
-        <v>5.0427127240102392E-2</v>
+        <v>0.20052198831946599</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
-        <v>3.9414601810368473E-4</v>
+        <v>1.5673100484593582E-3</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
-        <v>3.3392246502697264E-5</v>
+        <v>1.3278328609307854E-4</v>
       </c>
       <c r="U7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
-        <v>2.4931979747645605E-5</v>
+        <v>9.9141284172990767E-5</v>
       </c>
       <c r="V7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
@@ -45920,8 +45920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A34B4-2389-47FB-B2B8-B4CBDDE497E7}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45944,22 +45944,22 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.48</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -45969,7 +45969,7 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
     </row>
@@ -46449,7 +46449,7 @@
       </c>
       <c r="C6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>4.3265881147540983E-6</v>
+        <v>1.7617866803278686E-4</v>
       </c>
       <c r="D6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -46473,51 +46473,51 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>1.2415066598360654E-3</v>
+        <v>5.0554151188524583E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>2.4247770491803277E-2</v>
+        <v>0.98736921442622938</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>5.7681900614754103E-2</v>
+        <v>2.3488069930327868</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>7.641920512295082E-2</v>
+        <v>3.1117900326065575</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>9.5939360655737702E-2</v>
+        <v>3.906650765901639</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.11393554303278687</v>
+        <v>4.6394553122950812</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>9.5081713627049175E-2</v>
+        <v>3.8717273788934423</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>6.5566593749999999E-2</v>
+        <v>2.6698716975000001</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>3.2742161475409835E-2</v>
+        <v>1.3332608152786884</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>6.8941967213114741E-3</v>
+        <v>0.28073169049180324</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>4.165573770491802E-5</v>
+        <v>1.6962216393442617E-3</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>1.8374999999999999E-5</v>
+        <v>7.482299999999999E-4</v>
       </c>
       <c r="U6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -46550,7 +46550,7 @@
       </c>
       <c r="C7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
-        <v>1.4710399590163934E-5</v>
+        <v>5.8495471311475404E-5</v>
       </c>
       <c r="D7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
@@ -46574,51 +46574,51 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
-        <v>4.221122643442622E-3</v>
+        <v>1.6785170040983604E-2</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
-        <v>8.2442419672131145E-2</v>
+        <v>0.32782985704918027</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
-        <v>0.19611846209016395</v>
+        <v>0.77985929631147544</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
-        <v>0.25982529741803279</v>
+        <v>1.033187653262295</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
-        <v>0.32619382622950815</v>
+        <v>1.2971001560655737</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
-        <v>0.38738084631147535</v>
+        <v>1.5404085418032785</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
-        <v>0.32327782633196717</v>
+        <v>1.2855047682377048</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
-        <v>0.22292641874999999</v>
+        <v>0.88646034749999991</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
-        <v>0.11132334901639343</v>
+        <v>0.44267402314754095</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
-        <v>2.344026885245901E-2</v>
+        <v>9.3209539672131123E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
-        <v>1.4162950819672127E-4</v>
+        <v>5.6318557377049163E-4</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
-        <v>6.2475000000000001E-5</v>
+        <v>2.4843E-4</v>
       </c>
       <c r="U7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
@@ -47783,47 +47783,47 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>1.2803878764869651E-3</v>
+        <v>5.2137394330549217E-2</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>2.7733152406036445E-2</v>
+        <v>1.1292939659738039</v>
       </c>
       <c r="K6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>6.5092963015692215E-2</v>
+        <v>2.6505854539989868</v>
       </c>
       <c r="L6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>9.614168802201975E-2</v>
+        <v>3.914889536256644</v>
       </c>
       <c r="M6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.10053099314255881</v>
+        <v>4.0936220407649948</v>
       </c>
       <c r="N6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>8.8796056378132093E-2</v>
+        <v>3.6157754157175388</v>
       </c>
       <c r="O6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>7.125934059415337E-2</v>
+        <v>2.9016803489939251</v>
       </c>
       <c r="P6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>5.7123401670463168E-2</v>
+        <v>2.3260649160212603</v>
       </c>
       <c r="Q6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>2.4427681283219437E-2</v>
+        <v>0.99469518185269545</v>
       </c>
       <c r="R6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>4.3126263525056939E-3</v>
+        <v>0.17561014507403186</v>
       </c>
       <c r="S6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>7.0535940268286513E-6</v>
+        <v>2.8722234877246269E-4</v>
       </c>
       <c r="T6" s="6">
         <f>VLOOKUP($A6,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -47884,47 +47884,47 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
-        <v>4.3533187800556808E-3</v>
+        <v>1.7310844090103767E-2</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
-        <v>9.4292718180523913E-2</v>
+        <v>0.37495222052961275</v>
       </c>
       <c r="K7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
-        <v>0.22131607425335353</v>
+        <v>0.88005685997215877</v>
       </c>
       <c r="L7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
-        <v>0.32688173927486713</v>
+        <v>1.299835622057707</v>
       </c>
       <c r="M7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
-        <v>0.34180537668469996</v>
+        <v>1.3591790272873951</v>
       </c>
       <c r="N7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
-        <v>0.30190659168564909</v>
+        <v>1.2005226822323458</v>
       </c>
       <c r="O7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
-        <v>0.24228175802012145</v>
+        <v>0.96342628483295356</v>
       </c>
       <c r="P7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
-        <v>0.19421956567957477</v>
+        <v>0.77230839058466205</v>
       </c>
       <c r="Q7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
-        <v>8.3054116362946087E-2</v>
+        <v>0.33026225094912676</v>
       </c>
       <c r="R7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
-        <v>1.4662929598519359E-2</v>
+        <v>5.8306708285876981E-2</v>
       </c>
       <c r="S7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
-        <v>2.3982219691217412E-5</v>
+        <v>9.5364591242723363E-5</v>
       </c>
       <c r="T7" s="6">
         <f>VLOOKUP($A7,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
@@ -53044,7 +53044,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/HR1/A_KPC_35_1/A_KPC_35_1_2035.xlsx
+++ b/data/HR1/A_KPC_35_1/A_KPC_35_1_2035.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_KPC_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DE174B-99CF-436E-8085-6B42609E8469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8DB800-C9FA-409E-9E91-2311F844528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" tabRatio="722" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40320" yWindow="-4755" windowWidth="17280" windowHeight="8970" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13646,8 +13646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45920,7 +45920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A34B4-2389-47FB-B2B8-B4CBDDE497E7}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
